--- a/notendahopar.xlsx
+++ b/notendahopar.xlsx
@@ -20,12 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t xml:space="preserve">Greining Notendahópa / User Group Analysis</t>
   </si>
   <si>
     <t xml:space="preserve">Nafn hópsins/Name of the user group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starfsmenn í Reykjavík</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starfsmenn í útibúum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuck Norris</t>
   </si>
   <si>
     <t xml:space="preserve">HVERJIR: Bakgrunnur/ 
@@ -35,28 +44,106 @@
     <t xml:space="preserve">Aldur/age</t>
   </si>
   <si>
+    <t xml:space="preserve">18 – 67</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kyn/gender</t>
   </si>
   <si>
+    <t xml:space="preserve">Öll kyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 111 0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Menntun/Education</t>
   </si>
   <si>
+    <t xml:space="preserve">Stúdentspróf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Háskólagráður, stofnaði Harvard</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hæfni, vanhæfni/Abilities, disabilities</t>
   </si>
   <si>
+    <t xml:space="preserve">Almennt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betri en þú getur ímyndað þér</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tölvufærni/General computer skills</t>
   </si>
   <si>
+    <t xml:space="preserve">Góð</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fjöldi notenda/Number of users</t>
   </si>
   <si>
+    <t xml:space="preserve">10-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaN</t>
+  </si>
+  <si>
     <t xml:space="preserve">AF HVERJU: Helstu notendamarkmið/ WHY: main user goals</t>
   </si>
   <si>
+    <t xml:space="preserve">Að stofna leigusamninga og breyta þeim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Að skrá ný farartæki þegar fjölgað er í flotanum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yfirlit yfir tekjur þar sem ætti að vera hægt að velja tímabilið sem á að skoða. Einnigværi gott að sjá sundurliðun á tekjum útibúa og tegund farartækja. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Að kalla fram prentvæna reikninga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Að skrá þegar farartæki er sótt af viðskiptavin (lánað út).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yfirlit yfir nýtingu farartækja á hverjum stað, flokkað eftir tegund. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Að kalla fram prentvænar skýrslur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Að skrá þegar viðskiptavinur skilar farartæki (móttekið).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yfirlit yfir reikninga á ákveðnu tímabili, þar sem hægt er að flokka eftir viðskiptavinumog hvort þeir séu farnir í inheimtu (rukkaðir). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Að skrá hvort farartæki sé hæft til útleigu (viðhald). </t>
+  </si>
+  <si>
     <t xml:space="preserve">HVAÐ: Tæknilegt umhverfi/ WHAT:Technical environment</t>
   </si>
   <si>
+    <t xml:space="preserve">Command line / terminal</t>
+  </si>
+  <si>
     <t xml:space="preserve">HVAR: Raunverulegt umhverfi/ WHERE: The usage environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skrifstofa / þjónustuborð</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Þjónustuborð</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alheimurinn</t>
   </si>
   <si>
     <t xml:space="preserve">HVENÆR: Notkun kerfis/ 
@@ -66,14 +153,38 @@
     <t xml:space="preserve">Hversu oft/how often</t>
   </si>
   <si>
+    <t xml:space="preserve">oft á dag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alltaf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hversu lengi/for how long</t>
   </si>
   <si>
+    <t xml:space="preserve">8 tíma með pásum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infinity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Færni notenda/user skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mjög góð</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beyond</t>
   </si>
   <si>
     <t xml:space="preserve">HVERSU: Mikilvægur er hópurinn?/ 
 HOW: Important is this user group?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mjög mikilvægur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikilvægastur / 0</t>
   </si>
 </sst>
 </file>
@@ -83,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -123,6 +234,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="25"/>
       <color rgb="FFCD0920"/>
       <name val="Calibri"/>
@@ -150,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="15">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -173,13 +290,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
       <top style="medium"/>
@@ -194,13 +304,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -215,13 +318,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -236,13 +332,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -257,13 +346,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
       <top/>
@@ -278,13 +360,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
       <top/>
@@ -294,13 +369,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -331,7 +399,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -348,111 +416,91 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -533,208 +581,305 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:AMJ29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="64.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14"/>
+      <c r="B12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14"/>
+      <c r="B13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14"/>
+      <c r="B14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" s="19" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" s="24" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30"/>
-    </row>
-    <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="30"/>
-    </row>
-    <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30"/>
-    </row>
-    <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="30"/>
-    </row>
-    <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="30"/>
+      <c r="AMJ17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20"/>
+      <c r="B19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="30.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="25"/>
+    </row>
+    <row r="26" customFormat="false" ht="30.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="25"/>
+    </row>
+    <row r="27" customFormat="false" ht="30.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="25"/>
+    </row>
+    <row r="28" customFormat="false" ht="30.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="25"/>
+    </row>
+    <row r="29" customFormat="false" ht="30.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
